--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5511551155115512</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4285714285714285</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.912568306010929</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08108108108108109</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.540785498489426</v>
+        <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6872427983539094</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4682779456193353</v>
+        <v>0.4924471299093656</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08519909668890689</v>
+        <v>0.1165443860560904</v>
       </c>
       <c r="J2" t="n">
-        <v>1143.426892198582</v>
+        <v>1482.407346792392</v>
       </c>
       <c r="K2" t="n">
-        <v>2115262.084760583</v>
+        <v>2666179.246457327</v>
       </c>
       <c r="L2" t="n">
-        <v>1454.394061030429</v>
+        <v>1632.843913684748</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6045656903964007</v>
+        <v>0.5015753569271637</v>
       </c>
     </row>
   </sheetData>
